--- a/ig/main/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-03T13:05:58+00:00</t>
+    <t>2023-05-03T13:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CDS_BundleResponseRecherche</t>
+    <t>CDSBundleResponseRecherche</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T08:01:29+00:00</t>
+    <t>2023-07-03T17:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T17:03:39+00:00</t>
+    <t>2023-07-03T17:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T09:00:00+00:00</t>
+    <t>2024-02-15T16:01:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
